--- a/doc/iLife数据库设计文档.xlsx
+++ b/doc/iLife数据库设计文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="商品表" sheetId="1" r:id="rId1"/>
@@ -212,12 +212,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,6 +228,75 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -241,6 +310,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -249,72 +355,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,59 +363,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -386,187 +379,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,26 +573,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,32 +586,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -654,11 +606,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,153 +650,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1184,8 +1177,8 @@
   <sheetPr/>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1357,8 +1350,8 @@
   <sheetPr/>
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/doc/iLife数据库设计文档.xlsx
+++ b/doc/iLife数据库设计文档.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
   <si>
     <t>i_goods_info商品表</t>
   </si>
@@ -81,15 +81,15 @@
     <t>单价</t>
   </si>
   <si>
+    <t>double</t>
+  </si>
+  <si>
     <t>sell_num</t>
   </si>
   <si>
     <t>卖出数量</t>
   </si>
   <si>
-    <t>double</t>
-  </si>
-  <si>
     <t>是</t>
   </si>
   <si>
@@ -114,6 +114,24 @@
     <t>获取商品的时间</t>
   </si>
   <si>
+    <t>i_goods_cart_info购物车表</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>total_price</t>
+  </si>
+  <si>
+    <t>总价</t>
+  </si>
+  <si>
+    <t>加入购物车的时间</t>
+  </si>
+  <si>
     <t>i_order_info订单表</t>
   </si>
   <si>
@@ -123,9 +141,6 @@
     <t>订单号</t>
   </si>
   <si>
-    <t>total_price</t>
-  </si>
-  <si>
     <t>订单金额</t>
   </si>
   <si>
@@ -192,13 +207,7 @@
     <t>商品实际id</t>
   </si>
   <si>
-    <t>数量</t>
-  </si>
-  <si>
     <t>goods_price</t>
-  </si>
-  <si>
-    <t>总价</t>
   </si>
   <si>
     <t>下单人id</t>
@@ -212,10 +221,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -233,31 +242,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,9 +272,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,17 +281,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -319,14 +312,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,19 +332,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -363,8 +371,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,13 +394,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,25 +544,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,133 +556,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,24 +579,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -621,6 +612,33 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -632,6 +650,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,26 +679,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -678,10 +687,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -690,139 +699,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1175,10 +1187,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1286,19 +1298,22 @@
       <c r="B7" t="s">
         <v>20</v>
       </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -1335,9 +1350,179 @@
         <v>31</v>
       </c>
     </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A21:M21"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1350,15 +1535,15 @@
   <sheetPr/>
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1406,10 +1591,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -1423,10 +1608,10 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -1434,10 +1619,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -1448,10 +1633,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
@@ -1462,10 +1647,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1474,15 +1659,15 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -1491,46 +1676,46 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1578,10 +1763,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
@@ -1592,10 +1777,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
         <v>15</v>
@@ -1606,7 +1791,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
@@ -1620,10 +1805,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
@@ -1634,10 +1819,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
@@ -1648,13 +1833,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
@@ -1665,10 +1850,10 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
@@ -1676,13 +1861,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
@@ -1690,10 +1875,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
         <v>8</v>
@@ -1704,10 +1889,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
         <v>15</v>
@@ -1718,36 +1903,36 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/doc/iLife数据库设计文档.xlsx
+++ b/doc/iLife数据库设计文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="商品表" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
   <si>
     <t>i_goods_info商品表</t>
   </si>
@@ -129,6 +129,21 @@
     <t>总价</t>
   </si>
   <si>
+    <t>uid</t>
+  </si>
+  <si>
+    <t>用户id</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>用户名</t>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+  </si>
+  <si>
     <t>加入购物车的时间</t>
   </si>
   <si>
@@ -144,7 +159,7 @@
     <t>订单金额</t>
   </si>
   <si>
-    <t>goods_quantity</t>
+    <t>total_num</t>
   </si>
   <si>
     <t>商品数量</t>
@@ -156,15 +171,6 @@
     <t>下单时间</t>
   </si>
   <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>用户id</t>
-  </si>
-  <si>
-    <t>user_name</t>
-  </si>
-  <si>
     <t>用户名称</t>
   </si>
   <si>
@@ -205,6 +211,15 @@
   </si>
   <si>
     <t>商品实际id</t>
+  </si>
+  <si>
+    <t>goods_name</t>
+  </si>
+  <si>
+    <t>goods_num</t>
+  </si>
+  <si>
+    <t>goods_unit</t>
   </si>
   <si>
     <t>goods_price</t>
@@ -235,69 +250,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,31 +274,53 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -356,16 +340,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,7 +357,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,31 +403,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,151 +577,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,6 +594,74 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -598,48 +681,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -653,32 +694,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -687,10 +702,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -699,142 +714,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1187,10 +1199,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:M21"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1351,21 +1363,21 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
@@ -1504,19 +1516,53 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
         <v>28</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B33" t="s">
         <v>29</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C33" t="s">
         <v>30</v>
       </c>
-      <c r="D31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" t="s">
-        <v>37</v>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1533,17 +1579,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1591,13 +1637,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -1608,7 +1654,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -1619,10 +1665,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -1633,10 +1679,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
@@ -1647,10 +1693,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1659,15 +1705,15 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -1676,46 +1722,46 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
         <v>54</v>
       </c>
-      <c r="B11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1763,10 +1809,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
@@ -1777,10 +1823,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
         <v>15</v>
@@ -1791,7 +1837,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
@@ -1805,10 +1851,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
@@ -1819,13 +1865,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
@@ -1833,13 +1879,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
@@ -1847,13 +1893,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
@@ -1861,13 +1907,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
@@ -1875,13 +1921,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
@@ -1889,50 +1935,78 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" t="s">
         <v>15</v>
       </c>
-      <c r="D33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
         <v>52</v>
       </c>
-      <c r="D34" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="B36" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
+      <c r="C36" t="s">
         <v>54</v>
       </c>
-      <c r="B35" t="s">
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
         <v>55</v>
       </c>
-      <c r="C35" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" t="s">
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
         <v>56</v>
+      </c>
+      <c r="B37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
